--- a/tool_evaluation.xlsx
+++ b/tool_evaluation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="180">
   <si>
     <t xml:space="preserve">Tool</t>
   </si>
@@ -182,19 +182,25 @@
     <t xml:space="preserve">stand alone</t>
   </si>
   <si>
+    <t xml:space="preserve">10-20min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txt file with predicted interaction probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini version available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aPRBind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txt file with predicted RNA-binding positions of protein</t>
+  </si>
+  <si>
     <t xml:space="preserve">no run completed</t>
   </si>
   <si>
-    <t xml:space="preserve">large package to download (10GB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aPRBind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txt file with predicted RNA-binding positions of protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a lot of steps involved, have to be done half-manually with multiple websites and programs... no?</t>
+    <t xml:space="preserve">many separate, manual steps have to be done, refers to multiple websites and programs. No easy-to-use method for users.</t>
   </si>
   <si>
     <t xml:space="preserve">protein structure</t>
@@ -245,7 +251,7 @@
     <t xml:space="preserve">RNA-binding residues in protein highlighted in the structure on webserver, csv file to download</t>
   </si>
   <si>
-    <t xml:space="preserve">no run completed: webserver neither finished the runs nor gave feedback about status</t>
+    <t xml:space="preserve">no run completed: webserver neither finished the computations nor gave feedback about status</t>
   </si>
   <si>
     <t xml:space="preserve">specific predictions for different ligands possible</t>
@@ -269,6 +275,9 @@
     <t xml:space="preserve">'protein surface analysis’ mode is the only of the three modes without additional input required (besides PDB structure)</t>
   </si>
   <si>
+    <t xml:space="preserve">4ATO instead of 2XD0 used (2XD0 does not work)</t>
+  </si>
+  <si>
     <t xml:space="preserve">RNA + protein sequence</t>
   </si>
   <si>
@@ -290,7 +299,7 @@
     <t xml:space="preserve">score (interaction probability)</t>
   </si>
   <si>
-    <t xml:space="preserve">webserver seems to be down, but stand alone installation was quick</t>
+    <t xml:space="preserve">webserver is down, but stand alone installation was quick</t>
   </si>
   <si>
     <t xml:space="preserve">RPI2825
@@ -385,8 +394,7 @@
     <t xml:space="preserve">IPMiner</t>
   </si>
   <si>
-    <t xml:space="preserve">ich weine, die dependencies machen nicht das was sie sollen
-old versions of packages cause troubles always</t>
+    <t xml:space="preserve">versions of the dependencies cause compatibility issues</t>
   </si>
   <si>
     <t xml:space="preserve">beRBP</t>
@@ -398,7 +406,8 @@
     <t xml:space="preserve">listed matches of where the RBP domain can bind the RNA sequence, downloadable</t>
   </si>
   <si>
-    <t xml:space="preserve">no results due to error message: "no RBP domain was found in your interested sequence of RBP. Please go back and try another RBP sequence."</t>
+    <t xml:space="preserve">no results due to error message: "no RBP domain was found in your interested sequence of RBP. Please go back and try another RBP sequence."
+→ this message shows with the tool’s example RBP sequences as well</t>
   </si>
   <si>
     <t xml:space="preserve">RNA + protein structure</t>
@@ -417,6 +426,9 @@
   </si>
   <si>
     <t xml:space="preserve">RNA molecule (or other ligands) is crucial for prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no run completed due to missing RNA</t>
   </si>
   <si>
     <t xml:space="preserve">PredPRBA</t>
@@ -447,7 +459,7 @@
   <si>
     <t xml:space="preserve">- no RNA chain
 - structural keyword: Miscellaneous
-no run completed</t>
+no run completed (most likely due to missing RNA)</t>
   </si>
   <si>
     <t xml:space="preserve">- RNA chain G
@@ -500,55 +512,15 @@
     <t xml:space="preserve">PDB structure/chain of RNA and protein separately</t>
   </si>
   <si>
-    <t xml:space="preserve">- protein chain A
-- RNA chain C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- protein chain A
-- RNA chain R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- protein chain A
-- RNA chain G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSiteDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two different options for protein structure only and RNA + protein structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeepSite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select all chains, use Deepsite Model (default)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binding amino acids downloadable as csv result and cube file, structural visualization at webserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5KNW used because 6D12 failed to be featurized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter all chains for protein and RNA each</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interface atoms for both protein and RNA chain (PDB format) + output parameters</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">calculation runs through, but none of the result files can be downloaded or get displayed
-</t>
+      <t xml:space="preserve">no run completed: </t>
     </r>
     <r>
       <rPr>
@@ -558,11 +530,56 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">no run completed</t>
+      <t xml:space="preserve">webserver never finished the computations </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">up to 30 RNA-protein complexes can be uploaded</t>
+    <t xml:space="preserve">- protein chain A
+- RNA chain C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- protein chain A
+- RNA chain R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- protein chain A
+- RNA chain G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSiteDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no run completed: computations do not start (backend error?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two different options for protein structure only and RNA + protein structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeepSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select all chains, use Deepsite Model (default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binding amino acids downloadable as csv result and cube file, structural visualization at webserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5KNW used because 6D12 failed to be featurized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter all chains for protein and RNA each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA + protein PDB structure (up to 30 RNA-protein complexes possible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface atoms for both protein and RNA chain (PDB format) + output parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no run completed: computations run, but the result files do not get displayed and cannot be downloaded</t>
   </si>
   <si>
     <t xml:space="preserve">protein chains: AB
@@ -578,55 +595,55 @@
     <t xml:space="preserve">RNA and protein docking to a complex + scoring</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">nothing happens when submitting and no running jobs can be found at webserver
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">no run completed</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">PredRBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">only for testing the existing model with data set or building an own model
-inconsistent readme file with typos and wrong infos, which makes it hard to use the tool at all :(</t>
+    <t xml:space="preserve">no run completed: job gets submitted, but then nothing further happens and no active jobs can be found at webserver</t>
   </si>
   <si>
     <t xml:space="preserve">Post-processing potential</t>
   </si>
   <si>
+    <t xml:space="preserve">Evaluation score:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score of 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tool was run and provided results, but the results did not fulfill any of the evaluation points</t>
+  </si>
+  <si>
     <t xml:space="preserve">+</t>
   </si>
   <si>
+    <t xml:space="preserve">no score (-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tool was not applicable to our 4 examples, or did not run through with the input, or was failed to be installed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-processing potential:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parsable, downloadable results; potential to be incorporated into a pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viewable content on webserver, but no download or potential to incorporate into downstream analyses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no assessment for tool which were not applicable (no evaluation score)</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRNApred</t>
   </si>
   <si>
-    <t xml:space="preserve">still running</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRince</t>
   </si>
   <si>
     <t xml:space="preserve">Evaluation point given for each:</t>
   </si>
   <si>
-    <t xml:space="preserve">Did the algorithm predict any interaction?</t>
+    <t xml:space="preserve">Did the algorithm predict any interaction for the given input?</t>
   </si>
   <si>
     <t xml:space="preserve">Does the prediction cover the correct region (in protein and/or RNA)?</t>
@@ -635,7 +652,7 @@
     <t xml:space="preserve">Does the prediction cover the correct interacting residues?</t>
   </si>
   <si>
-    <t xml:space="preserve">Is the prediction confidently (&gt;= 70%) correct?</t>
+    <t xml:space="preserve">Is the prediction confidently (&gt;= 70%, if applicable) correct?</t>
   </si>
 </sst>
 </file>
@@ -647,7 +664,7 @@
     <numFmt numFmtId="165" formatCode="d/m"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -715,15 +732,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -735,7 +758,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,14 +767,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE4E4E4"/>
-        <bgColor rgb="FFE6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF328152"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFB4B4B4"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
     <fill>
@@ -763,29 +780,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
-        <bgColor rgb="FFE4E4E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF9B4"/>
-        <bgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFB4B4B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFE4E4E4"/>
+        <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -798,6 +809,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -826,7 +844,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -851,7 +869,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,11 +881,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,19 +901,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,35 +917,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,10 +983,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1001,7 +1023,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF9B4"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFED9191"/>
@@ -1017,7 +1039,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE4E4E4"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1030,9 +1052,9 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB4B4B4"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF328152"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1052,12 +1074,12 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -1161,20 +1183,20 @@
       <c r="I3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1198,18 +1220,18 @@
       <c r="I4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1231,10 +1253,10 @@
       <c r="I5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -1260,7 +1282,7 @@
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1277,10 +1299,10 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
@@ -1289,7 +1311,7 @@
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1306,10 +1328,10 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
@@ -1318,7 +1340,7 @@
       <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1335,55 +1357,55 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1394,26 +1416,26 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="G12" s="7" t="s">
         <v>52</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>53</v>
+    <row r="13" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>26</v>
@@ -1429,13 +1451,13 @@
         <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1444,7 +1466,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1461,7 +1483,7 @@
     </row>
     <row r="15" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>26</v>
@@ -1470,16 +1492,16 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1487,7 +1509,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="242.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,109 +1519,113 @@
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>63</v>
+      <c r="D16" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
+      <c r="I16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1616,10 +1642,10 @@
     </row>
     <row r="20" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>16</v>
@@ -1628,17 +1654,17 @@
         <v>26</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1647,84 +1673,84 @@
     </row>
     <row r="21" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="15" t="s">
-        <v>86</v>
+      <c r="I21" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1733,52 +1759,52 @@
     </row>
     <row r="23" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="15" t="s">
-        <v>99</v>
+      <c r="I23" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
-        <v>100</v>
+      <c r="A24" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>26</v>
@@ -1795,19 +1821,19 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>101</v>
+        <v>56</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>26</v>
@@ -1816,22 +1842,22 @@
         <v>16</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>79</v>
+        <v>106</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>105</v>
+        <v>56</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -1840,7 +1866,7 @@
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1857,10 +1883,10 @@
     </row>
     <row r="27" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>16</v>
@@ -1869,65 +1895,67 @@
         <v>26</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-    </row>
-    <row r="28" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="L28" s="21" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>26</v>
@@ -1936,45 +1964,47 @@
         <v>16</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="19" t="s">
+        <v>115</v>
+      </c>
       <c r="M29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>26</v>
@@ -1983,39 +2013,39 @@
         <v>16</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>129</v>
+        <v>112</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="H30" s="8"/>
       <c r="I30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
+        <v>135</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
@@ -2024,33 +2054,33 @@
       <c r="B31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+        <v>135</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>26</v>
@@ -2062,46 +2092,48 @@
         <v>26</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>69</v>
+        <v>139</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="I32" s="20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>51</v>
+        <v>142</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
+        <v>143</v>
+      </c>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>26</v>
@@ -2113,17 +2145,17 @@
         <v>26</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="9" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -2132,7 +2164,7 @@
     </row>
     <row r="34" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>26</v>
@@ -2141,31 +2173,31 @@
         <v>16</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>145</v>
+    <row r="35" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>26</v>
@@ -2174,33 +2206,33 @@
         <v>16</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="s">
-        <v>151</v>
+      <c r="A36" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>26</v>
@@ -2209,17 +2241,19 @@
         <v>16</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G36" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -2227,2917 +2261,2907 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="E38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="19"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="19"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="19"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="19"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="19"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="19"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="19"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="19"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="19"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="19"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="19"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="19"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="19"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="19"/>
+      <c r="E52" s="16"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="19"/>
+      <c r="E53" s="16"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="19"/>
+      <c r="E54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="19"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="19"/>
+      <c r="E56" s="16"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="19"/>
+      <c r="E57" s="16"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="19"/>
+      <c r="E58" s="16"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="19"/>
+      <c r="E59" s="16"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="19"/>
+      <c r="E60" s="16"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="19"/>
+      <c r="E61" s="16"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="19"/>
+      <c r="E62" s="16"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="19"/>
+      <c r="E63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="19"/>
+      <c r="E64" s="16"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="19"/>
+      <c r="E65" s="16"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="19"/>
+      <c r="E66" s="16"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="19"/>
+      <c r="E67" s="16"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="19"/>
+      <c r="E68" s="16"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="19"/>
+      <c r="E69" s="16"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="19"/>
+      <c r="E70" s="16"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="19"/>
+      <c r="E71" s="16"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="19"/>
+      <c r="E72" s="16"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="19"/>
+      <c r="E73" s="16"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="19"/>
+      <c r="E74" s="16"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="19"/>
+      <c r="E75" s="16"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="19"/>
+      <c r="E76" s="16"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="19"/>
+      <c r="E77" s="16"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="19"/>
+      <c r="E78" s="16"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="19"/>
+      <c r="E79" s="16"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="19"/>
+      <c r="E80" s="16"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="19"/>
+      <c r="E81" s="16"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="19"/>
+      <c r="E82" s="16"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="19"/>
+      <c r="E83" s="16"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="19"/>
+      <c r="E84" s="16"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="19"/>
+      <c r="E85" s="16"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="19"/>
+      <c r="E86" s="16"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="19"/>
+      <c r="E87" s="16"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="19"/>
+      <c r="E88" s="16"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="19"/>
+      <c r="E89" s="16"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="19"/>
+      <c r="E90" s="16"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="19"/>
+      <c r="E91" s="16"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="19"/>
+      <c r="E92" s="16"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="19"/>
+      <c r="E93" s="16"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="19"/>
+      <c r="E94" s="16"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="19"/>
+      <c r="E95" s="16"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="19"/>
+      <c r="E96" s="16"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="19"/>
+      <c r="E97" s="16"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="19"/>
+      <c r="E98" s="16"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="19"/>
+      <c r="E99" s="16"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="19"/>
+      <c r="E100" s="16"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="19"/>
+      <c r="E101" s="16"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="19"/>
+      <c r="E102" s="16"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="19"/>
+      <c r="E103" s="16"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="19"/>
+      <c r="E104" s="16"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="19"/>
+      <c r="E105" s="16"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="19"/>
+      <c r="E106" s="16"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="19"/>
+      <c r="E107" s="16"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="19"/>
+      <c r="E108" s="16"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="19"/>
+      <c r="E109" s="16"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="19"/>
+      <c r="E110" s="16"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="19"/>
+      <c r="E111" s="16"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="19"/>
+      <c r="E112" s="16"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="19"/>
+      <c r="E113" s="16"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="19"/>
+      <c r="E114" s="16"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="19"/>
+      <c r="E115" s="16"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="19"/>
+      <c r="E116" s="16"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="19"/>
+      <c r="E117" s="16"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="19"/>
+      <c r="E118" s="16"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="19"/>
+      <c r="E119" s="16"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="19"/>
+      <c r="E120" s="16"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="19"/>
+      <c r="E121" s="16"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="19"/>
+      <c r="E122" s="16"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="19"/>
+      <c r="E123" s="16"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="19"/>
+      <c r="E124" s="16"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="19"/>
+      <c r="E125" s="16"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="19"/>
+      <c r="E126" s="16"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="19"/>
+      <c r="E127" s="16"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="19"/>
+      <c r="E128" s="16"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="19"/>
+      <c r="E129" s="16"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="19"/>
+      <c r="E130" s="16"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="19"/>
+      <c r="E131" s="16"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="19"/>
+      <c r="E132" s="16"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="19"/>
+      <c r="E133" s="16"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="19"/>
+      <c r="E134" s="16"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="19"/>
+      <c r="E135" s="16"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="19"/>
+      <c r="E136" s="16"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="19"/>
+      <c r="E137" s="16"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="19"/>
+      <c r="E138" s="16"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="19"/>
+      <c r="E139" s="16"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="19"/>
+      <c r="E140" s="16"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="19"/>
+      <c r="E141" s="16"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="19"/>
+      <c r="E142" s="16"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="19"/>
+      <c r="E143" s="16"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="19"/>
+      <c r="E144" s="16"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="19"/>
+      <c r="E145" s="16"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="19"/>
+      <c r="E146" s="16"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="19"/>
+      <c r="E147" s="16"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="19"/>
+      <c r="E148" s="16"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="19"/>
+      <c r="E149" s="16"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="19"/>
+      <c r="E150" s="16"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="19"/>
+      <c r="E151" s="16"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="19"/>
+      <c r="E152" s="16"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="19"/>
+      <c r="E153" s="16"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="19"/>
+      <c r="E154" s="16"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="19"/>
+      <c r="E155" s="16"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="19"/>
+      <c r="E156" s="16"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="19"/>
+      <c r="E157" s="16"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="19"/>
+      <c r="E158" s="16"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="19"/>
+      <c r="E159" s="16"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="19"/>
+      <c r="E160" s="16"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="19"/>
+      <c r="E161" s="16"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="19"/>
+      <c r="E162" s="16"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="19"/>
+      <c r="E163" s="16"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="19"/>
+      <c r="E164" s="16"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="19"/>
+      <c r="E165" s="16"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="19"/>
+      <c r="E166" s="16"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="19"/>
+      <c r="E167" s="16"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="19"/>
+      <c r="E168" s="16"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="19"/>
+      <c r="E169" s="16"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="19"/>
+      <c r="E170" s="16"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="19"/>
+      <c r="E171" s="16"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="19"/>
+      <c r="E172" s="16"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="19"/>
+      <c r="E173" s="16"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E174" s="19"/>
+      <c r="E174" s="16"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="19"/>
+      <c r="E175" s="16"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="19"/>
+      <c r="E176" s="16"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="19"/>
+      <c r="E177" s="16"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="19"/>
+      <c r="E178" s="16"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="19"/>
+      <c r="E179" s="16"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="19"/>
+      <c r="E180" s="16"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="19"/>
+      <c r="E181" s="16"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="19"/>
+      <c r="E182" s="16"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="19"/>
+      <c r="E183" s="16"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="19"/>
+      <c r="E184" s="16"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="19"/>
+      <c r="E185" s="16"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="19"/>
+      <c r="E186" s="16"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="19"/>
+      <c r="E187" s="16"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E188" s="19"/>
+      <c r="E188" s="16"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="19"/>
+      <c r="E189" s="16"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="19"/>
+      <c r="E190" s="16"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="19"/>
+      <c r="E191" s="16"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="19"/>
+      <c r="E192" s="16"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="19"/>
+      <c r="E193" s="16"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="19"/>
+      <c r="E194" s="16"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="19"/>
+      <c r="E195" s="16"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="19"/>
+      <c r="E196" s="16"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="19"/>
+      <c r="E197" s="16"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="19"/>
+      <c r="E198" s="16"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="19"/>
+      <c r="E199" s="16"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="19"/>
+      <c r="E200" s="16"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="19"/>
+      <c r="E201" s="16"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="19"/>
+      <c r="E202" s="16"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="19"/>
+      <c r="E203" s="16"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="19"/>
+      <c r="E204" s="16"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="19"/>
+      <c r="E205" s="16"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E206" s="19"/>
+      <c r="E206" s="16"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E207" s="19"/>
+      <c r="E207" s="16"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="19"/>
+      <c r="E208" s="16"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="19"/>
+      <c r="E209" s="16"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="19"/>
+      <c r="E210" s="16"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="19"/>
+      <c r="E211" s="16"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="19"/>
+      <c r="E212" s="16"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="19"/>
+      <c r="E213" s="16"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="19"/>
+      <c r="E214" s="16"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="19"/>
+      <c r="E215" s="16"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="19"/>
+      <c r="E216" s="16"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="19"/>
+      <c r="E217" s="16"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="19"/>
+      <c r="E218" s="16"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="19"/>
+      <c r="E219" s="16"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="19"/>
+      <c r="E220" s="16"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="19"/>
+      <c r="E221" s="16"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="19"/>
+      <c r="E222" s="16"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="19"/>
+      <c r="E223" s="16"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="19"/>
+      <c r="E224" s="16"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="19"/>
+      <c r="E225" s="16"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="19"/>
+      <c r="E226" s="16"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="19"/>
+      <c r="E227" s="16"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E228" s="19"/>
+      <c r="E228" s="16"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="19"/>
+      <c r="E229" s="16"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E230" s="19"/>
+      <c r="E230" s="16"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E231" s="19"/>
+      <c r="E231" s="16"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E232" s="19"/>
+      <c r="E232" s="16"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="19"/>
+      <c r="E233" s="16"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E234" s="19"/>
+      <c r="E234" s="16"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E235" s="19"/>
+      <c r="E235" s="16"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E236" s="19"/>
+      <c r="E236" s="16"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E237" s="19"/>
+      <c r="E237" s="16"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E238" s="19"/>
+      <c r="E238" s="16"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E239" s="19"/>
+      <c r="E239" s="16"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="19"/>
+      <c r="E240" s="16"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E241" s="19"/>
+      <c r="E241" s="16"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="19"/>
+      <c r="E242" s="16"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E243" s="19"/>
+      <c r="E243" s="16"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E244" s="19"/>
+      <c r="E244" s="16"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E245" s="19"/>
+      <c r="E245" s="16"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E246" s="19"/>
+      <c r="E246" s="16"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="19"/>
+      <c r="E247" s="16"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E248" s="19"/>
+      <c r="E248" s="16"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E249" s="19"/>
+      <c r="E249" s="16"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E250" s="19"/>
+      <c r="E250" s="16"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E251" s="19"/>
+      <c r="E251" s="16"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E252" s="19"/>
+      <c r="E252" s="16"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E253" s="19"/>
+      <c r="E253" s="16"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E254" s="19"/>
+      <c r="E254" s="16"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E255" s="19"/>
+      <c r="E255" s="16"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="19"/>
+      <c r="E256" s="16"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E257" s="19"/>
+      <c r="E257" s="16"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E258" s="19"/>
+      <c r="E258" s="16"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E259" s="19"/>
+      <c r="E259" s="16"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E260" s="19"/>
+      <c r="E260" s="16"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E261" s="19"/>
+      <c r="E261" s="16"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E262" s="19"/>
+      <c r="E262" s="16"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="19"/>
+      <c r="E263" s="16"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E264" s="19"/>
+      <c r="E264" s="16"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="19"/>
+      <c r="E265" s="16"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E266" s="19"/>
+      <c r="E266" s="16"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E267" s="19"/>
+      <c r="E267" s="16"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E268" s="19"/>
+      <c r="E268" s="16"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E269" s="19"/>
+      <c r="E269" s="16"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E270" s="19"/>
+      <c r="E270" s="16"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E271" s="19"/>
+      <c r="E271" s="16"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E272" s="19"/>
+      <c r="E272" s="16"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E273" s="19"/>
+      <c r="E273" s="16"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E274" s="19"/>
+      <c r="E274" s="16"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E275" s="19"/>
+      <c r="E275" s="16"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E276" s="19"/>
+      <c r="E276" s="16"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E277" s="19"/>
+      <c r="E277" s="16"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E278" s="19"/>
+      <c r="E278" s="16"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E279" s="19"/>
+      <c r="E279" s="16"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E280" s="19"/>
+      <c r="E280" s="16"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E281" s="19"/>
+      <c r="E281" s="16"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E282" s="19"/>
+      <c r="E282" s="16"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E283" s="19"/>
+      <c r="E283" s="16"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E284" s="19"/>
+      <c r="E284" s="16"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E285" s="19"/>
+      <c r="E285" s="16"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E286" s="19"/>
+      <c r="E286" s="16"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E287" s="19"/>
+      <c r="E287" s="16"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E288" s="19"/>
+      <c r="E288" s="16"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E289" s="19"/>
+      <c r="E289" s="16"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E290" s="19"/>
+      <c r="E290" s="16"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E291" s="19"/>
+      <c r="E291" s="16"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E292" s="19"/>
+      <c r="E292" s="16"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E293" s="19"/>
+      <c r="E293" s="16"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E294" s="19"/>
+      <c r="E294" s="16"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E295" s="19"/>
+      <c r="E295" s="16"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E296" s="19"/>
+      <c r="E296" s="16"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E297" s="19"/>
+      <c r="E297" s="16"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E298" s="19"/>
+      <c r="E298" s="16"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E299" s="19"/>
+      <c r="E299" s="16"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E300" s="19"/>
+      <c r="E300" s="16"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E301" s="19"/>
+      <c r="E301" s="16"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E302" s="19"/>
+      <c r="E302" s="16"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E303" s="19"/>
+      <c r="E303" s="16"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E304" s="19"/>
+      <c r="E304" s="16"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E305" s="19"/>
+      <c r="E305" s="16"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E306" s="19"/>
+      <c r="E306" s="16"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E307" s="19"/>
+      <c r="E307" s="16"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E308" s="19"/>
+      <c r="E308" s="16"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E309" s="19"/>
+      <c r="E309" s="16"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E310" s="19"/>
+      <c r="E310" s="16"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E311" s="19"/>
+      <c r="E311" s="16"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E312" s="19"/>
+      <c r="E312" s="16"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E313" s="19"/>
+      <c r="E313" s="16"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E314" s="19"/>
+      <c r="E314" s="16"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E315" s="19"/>
+      <c r="E315" s="16"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E316" s="19"/>
+      <c r="E316" s="16"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E317" s="19"/>
+      <c r="E317" s="16"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E318" s="19"/>
+      <c r="E318" s="16"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E319" s="19"/>
+      <c r="E319" s="16"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E320" s="19"/>
+      <c r="E320" s="16"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E321" s="19"/>
+      <c r="E321" s="16"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E322" s="19"/>
+      <c r="E322" s="16"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E323" s="19"/>
+      <c r="E323" s="16"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E324" s="19"/>
+      <c r="E324" s="16"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E325" s="19"/>
+      <c r="E325" s="16"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E326" s="19"/>
+      <c r="E326" s="16"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E327" s="19"/>
+      <c r="E327" s="16"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E328" s="19"/>
+      <c r="E328" s="16"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E329" s="19"/>
+      <c r="E329" s="16"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E330" s="19"/>
+      <c r="E330" s="16"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E331" s="19"/>
+      <c r="E331" s="16"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E332" s="19"/>
+      <c r="E332" s="16"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E333" s="19"/>
+      <c r="E333" s="16"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E334" s="19"/>
+      <c r="E334" s="16"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E335" s="19"/>
+      <c r="E335" s="16"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E336" s="19"/>
+      <c r="E336" s="16"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E337" s="19"/>
+      <c r="E337" s="16"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E338" s="19"/>
+      <c r="E338" s="16"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E339" s="19"/>
+      <c r="E339" s="16"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E340" s="19"/>
+      <c r="E340" s="16"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E341" s="19"/>
+      <c r="E341" s="16"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E342" s="19"/>
+      <c r="E342" s="16"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E343" s="19"/>
+      <c r="E343" s="16"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E344" s="19"/>
+      <c r="E344" s="16"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E345" s="19"/>
+      <c r="E345" s="16"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E346" s="19"/>
+      <c r="E346" s="16"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E347" s="19"/>
+      <c r="E347" s="16"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E348" s="19"/>
+      <c r="E348" s="16"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E349" s="19"/>
+      <c r="E349" s="16"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E350" s="19"/>
+      <c r="E350" s="16"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E351" s="19"/>
+      <c r="E351" s="16"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E352" s="19"/>
+      <c r="E352" s="16"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E353" s="19"/>
+      <c r="E353" s="16"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E354" s="19"/>
+      <c r="E354" s="16"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E355" s="19"/>
+      <c r="E355" s="16"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E356" s="19"/>
+      <c r="E356" s="16"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E357" s="19"/>
+      <c r="E357" s="16"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E358" s="19"/>
+      <c r="E358" s="16"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E359" s="19"/>
+      <c r="E359" s="16"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E360" s="19"/>
+      <c r="E360" s="16"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E361" s="19"/>
+      <c r="E361" s="16"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E362" s="19"/>
+      <c r="E362" s="16"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E363" s="19"/>
+      <c r="E363" s="16"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E364" s="19"/>
+      <c r="E364" s="16"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E365" s="19"/>
+      <c r="E365" s="16"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E366" s="19"/>
+      <c r="E366" s="16"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E367" s="19"/>
+      <c r="E367" s="16"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E368" s="19"/>
+      <c r="E368" s="16"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E369" s="19"/>
+      <c r="E369" s="16"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E370" s="19"/>
+      <c r="E370" s="16"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E371" s="19"/>
+      <c r="E371" s="16"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E372" s="19"/>
+      <c r="E372" s="16"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E373" s="19"/>
+      <c r="E373" s="16"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E374" s="19"/>
+      <c r="E374" s="16"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E375" s="19"/>
+      <c r="E375" s="16"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E376" s="19"/>
+      <c r="E376" s="16"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E377" s="19"/>
+      <c r="E377" s="16"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E378" s="19"/>
+      <c r="E378" s="16"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E379" s="19"/>
+      <c r="E379" s="16"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E380" s="19"/>
+      <c r="E380" s="16"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E381" s="19"/>
+      <c r="E381" s="16"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E382" s="19"/>
+      <c r="E382" s="16"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E383" s="19"/>
+      <c r="E383" s="16"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E384" s="19"/>
+      <c r="E384" s="16"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E385" s="19"/>
+      <c r="E385" s="16"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E386" s="19"/>
+      <c r="E386" s="16"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E387" s="19"/>
+      <c r="E387" s="16"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E388" s="19"/>
+      <c r="E388" s="16"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E389" s="19"/>
+      <c r="E389" s="16"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E390" s="19"/>
+      <c r="E390" s="16"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E391" s="19"/>
+      <c r="E391" s="16"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E392" s="19"/>
+      <c r="E392" s="16"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E393" s="19"/>
+      <c r="E393" s="16"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E394" s="19"/>
+      <c r="E394" s="16"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E395" s="19"/>
+      <c r="E395" s="16"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E396" s="19"/>
+      <c r="E396" s="16"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E397" s="19"/>
+      <c r="E397" s="16"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E398" s="19"/>
+      <c r="E398" s="16"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E399" s="19"/>
+      <c r="E399" s="16"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E400" s="19"/>
+      <c r="E400" s="16"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E401" s="19"/>
+      <c r="E401" s="16"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E402" s="19"/>
+      <c r="E402" s="16"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E403" s="19"/>
+      <c r="E403" s="16"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E404" s="19"/>
+      <c r="E404" s="16"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E405" s="19"/>
+      <c r="E405" s="16"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E406" s="19"/>
+      <c r="E406" s="16"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E407" s="19"/>
+      <c r="E407" s="16"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E408" s="19"/>
+      <c r="E408" s="16"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E409" s="19"/>
+      <c r="E409" s="16"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E410" s="19"/>
+      <c r="E410" s="16"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E411" s="19"/>
+      <c r="E411" s="16"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E412" s="19"/>
+      <c r="E412" s="16"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E413" s="19"/>
+      <c r="E413" s="16"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E414" s="19"/>
+      <c r="E414" s="16"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E415" s="19"/>
+      <c r="E415" s="16"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E416" s="19"/>
+      <c r="E416" s="16"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E417" s="19"/>
+      <c r="E417" s="16"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E418" s="19"/>
+      <c r="E418" s="16"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E419" s="19"/>
+      <c r="E419" s="16"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E420" s="19"/>
+      <c r="E420" s="16"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E421" s="19"/>
+      <c r="E421" s="16"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E422" s="19"/>
+      <c r="E422" s="16"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E423" s="19"/>
+      <c r="E423" s="16"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E424" s="19"/>
+      <c r="E424" s="16"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E425" s="19"/>
+      <c r="E425" s="16"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E426" s="19"/>
+      <c r="E426" s="16"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E427" s="19"/>
+      <c r="E427" s="16"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E428" s="19"/>
+      <c r="E428" s="16"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E429" s="19"/>
+      <c r="E429" s="16"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E430" s="19"/>
+      <c r="E430" s="16"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E431" s="19"/>
+      <c r="E431" s="16"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E432" s="19"/>
+      <c r="E432" s="16"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E433" s="19"/>
+      <c r="E433" s="16"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E434" s="19"/>
+      <c r="E434" s="16"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E435" s="19"/>
+      <c r="E435" s="16"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E436" s="19"/>
+      <c r="E436" s="16"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E437" s="19"/>
+      <c r="E437" s="16"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E438" s="19"/>
+      <c r="E438" s="16"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E439" s="19"/>
+      <c r="E439" s="16"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E440" s="19"/>
+      <c r="E440" s="16"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E441" s="19"/>
+      <c r="E441" s="16"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E442" s="19"/>
+      <c r="E442" s="16"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E443" s="19"/>
+      <c r="E443" s="16"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E444" s="19"/>
+      <c r="E444" s="16"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E445" s="19"/>
+      <c r="E445" s="16"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E446" s="19"/>
+      <c r="E446" s="16"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E447" s="19"/>
+      <c r="E447" s="16"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E448" s="19"/>
+      <c r="E448" s="16"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E449" s="19"/>
+      <c r="E449" s="16"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E450" s="19"/>
+      <c r="E450" s="16"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E451" s="19"/>
+      <c r="E451" s="16"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E452" s="19"/>
+      <c r="E452" s="16"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E453" s="19"/>
+      <c r="E453" s="16"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E454" s="19"/>
+      <c r="E454" s="16"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E455" s="19"/>
+      <c r="E455" s="16"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E456" s="19"/>
+      <c r="E456" s="16"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E457" s="19"/>
+      <c r="E457" s="16"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E458" s="19"/>
+      <c r="E458" s="16"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E459" s="19"/>
+      <c r="E459" s="16"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E460" s="19"/>
+      <c r="E460" s="16"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E461" s="19"/>
+      <c r="E461" s="16"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E462" s="19"/>
+      <c r="E462" s="16"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E463" s="19"/>
+      <c r="E463" s="16"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E464" s="19"/>
+      <c r="E464" s="16"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E465" s="19"/>
+      <c r="E465" s="16"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E466" s="19"/>
+      <c r="E466" s="16"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E467" s="19"/>
+      <c r="E467" s="16"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E468" s="19"/>
+      <c r="E468" s="16"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E469" s="19"/>
+      <c r="E469" s="16"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E470" s="19"/>
+      <c r="E470" s="16"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E471" s="19"/>
+      <c r="E471" s="16"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E472" s="19"/>
+      <c r="E472" s="16"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E473" s="19"/>
+      <c r="E473" s="16"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E474" s="19"/>
+      <c r="E474" s="16"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E475" s="19"/>
+      <c r="E475" s="16"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E476" s="19"/>
+      <c r="E476" s="16"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E477" s="19"/>
+      <c r="E477" s="16"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E478" s="19"/>
+      <c r="E478" s="16"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E479" s="19"/>
+      <c r="E479" s="16"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E480" s="19"/>
+      <c r="E480" s="16"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E481" s="19"/>
+      <c r="E481" s="16"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E482" s="19"/>
+      <c r="E482" s="16"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E483" s="19"/>
+      <c r="E483" s="16"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E484" s="19"/>
+      <c r="E484" s="16"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E485" s="19"/>
+      <c r="E485" s="16"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E486" s="19"/>
+      <c r="E486" s="16"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E487" s="19"/>
+      <c r="E487" s="16"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E488" s="19"/>
+      <c r="E488" s="16"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E489" s="19"/>
+      <c r="E489" s="16"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E490" s="19"/>
+      <c r="E490" s="16"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E491" s="19"/>
+      <c r="E491" s="16"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E492" s="19"/>
+      <c r="E492" s="16"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E493" s="19"/>
+      <c r="E493" s="16"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E494" s="19"/>
+      <c r="E494" s="16"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E495" s="19"/>
+      <c r="E495" s="16"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E496" s="19"/>
+      <c r="E496" s="16"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E497" s="19"/>
+      <c r="E497" s="16"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E498" s="19"/>
+      <c r="E498" s="16"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E499" s="19"/>
+      <c r="E499" s="16"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E500" s="19"/>
+      <c r="E500" s="16"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E501" s="19"/>
+      <c r="E501" s="16"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E502" s="19"/>
+      <c r="E502" s="16"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E503" s="19"/>
+      <c r="E503" s="16"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E504" s="19"/>
+      <c r="E504" s="16"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E505" s="19"/>
+      <c r="E505" s="16"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E506" s="19"/>
+      <c r="E506" s="16"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E507" s="19"/>
+      <c r="E507" s="16"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E508" s="19"/>
+      <c r="E508" s="16"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E509" s="19"/>
+      <c r="E509" s="16"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E510" s="19"/>
+      <c r="E510" s="16"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E511" s="19"/>
+      <c r="E511" s="16"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E512" s="19"/>
+      <c r="E512" s="16"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E513" s="19"/>
+      <c r="E513" s="16"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E514" s="19"/>
+      <c r="E514" s="16"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E515" s="19"/>
+      <c r="E515" s="16"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E516" s="19"/>
+      <c r="E516" s="16"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E517" s="19"/>
+      <c r="E517" s="16"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E518" s="19"/>
+      <c r="E518" s="16"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E519" s="19"/>
+      <c r="E519" s="16"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E520" s="19"/>
+      <c r="E520" s="16"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E521" s="19"/>
+      <c r="E521" s="16"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E522" s="19"/>
+      <c r="E522" s="16"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E523" s="19"/>
+      <c r="E523" s="16"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E524" s="19"/>
+      <c r="E524" s="16"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E525" s="19"/>
+      <c r="E525" s="16"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E526" s="19"/>
+      <c r="E526" s="16"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E527" s="19"/>
+      <c r="E527" s="16"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E528" s="19"/>
+      <c r="E528" s="16"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E529" s="19"/>
+      <c r="E529" s="16"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E530" s="19"/>
+      <c r="E530" s="16"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E531" s="19"/>
+      <c r="E531" s="16"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E532" s="19"/>
+      <c r="E532" s="16"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E533" s="19"/>
+      <c r="E533" s="16"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E534" s="19"/>
+      <c r="E534" s="16"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E535" s="19"/>
+      <c r="E535" s="16"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E536" s="19"/>
+      <c r="E536" s="16"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E537" s="19"/>
+      <c r="E537" s="16"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E538" s="19"/>
+      <c r="E538" s="16"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E539" s="19"/>
+      <c r="E539" s="16"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E540" s="19"/>
+      <c r="E540" s="16"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E541" s="19"/>
+      <c r="E541" s="16"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E542" s="19"/>
+      <c r="E542" s="16"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E543" s="19"/>
+      <c r="E543" s="16"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E544" s="19"/>
+      <c r="E544" s="16"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E545" s="19"/>
+      <c r="E545" s="16"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E546" s="19"/>
+      <c r="E546" s="16"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E547" s="19"/>
+      <c r="E547" s="16"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E548" s="19"/>
+      <c r="E548" s="16"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E549" s="19"/>
+      <c r="E549" s="16"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E550" s="19"/>
+      <c r="E550" s="16"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E551" s="19"/>
+      <c r="E551" s="16"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E552" s="19"/>
+      <c r="E552" s="16"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E553" s="19"/>
+      <c r="E553" s="16"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E554" s="19"/>
+      <c r="E554" s="16"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E555" s="19"/>
+      <c r="E555" s="16"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E556" s="19"/>
+      <c r="E556" s="16"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E557" s="19"/>
+      <c r="E557" s="16"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E558" s="19"/>
+      <c r="E558" s="16"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E559" s="19"/>
+      <c r="E559" s="16"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E560" s="19"/>
+      <c r="E560" s="16"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E561" s="19"/>
+      <c r="E561" s="16"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E562" s="19"/>
+      <c r="E562" s="16"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E563" s="19"/>
+      <c r="E563" s="16"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E564" s="19"/>
+      <c r="E564" s="16"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E565" s="19"/>
+      <c r="E565" s="16"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E566" s="19"/>
+      <c r="E566" s="16"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E567" s="19"/>
+      <c r="E567" s="16"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E568" s="19"/>
+      <c r="E568" s="16"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E569" s="19"/>
+      <c r="E569" s="16"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E570" s="19"/>
+      <c r="E570" s="16"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E571" s="19"/>
+      <c r="E571" s="16"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E572" s="19"/>
+      <c r="E572" s="16"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E573" s="19"/>
+      <c r="E573" s="16"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E574" s="19"/>
+      <c r="E574" s="16"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E575" s="19"/>
+      <c r="E575" s="16"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E576" s="19"/>
+      <c r="E576" s="16"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E577" s="19"/>
+      <c r="E577" s="16"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E578" s="19"/>
+      <c r="E578" s="16"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E579" s="19"/>
+      <c r="E579" s="16"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E580" s="19"/>
+      <c r="E580" s="16"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E581" s="19"/>
+      <c r="E581" s="16"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E582" s="19"/>
+      <c r="E582" s="16"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E583" s="19"/>
+      <c r="E583" s="16"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E584" s="19"/>
+      <c r="E584" s="16"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E585" s="19"/>
+      <c r="E585" s="16"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E586" s="19"/>
+      <c r="E586" s="16"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E587" s="19"/>
+      <c r="E587" s="16"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E588" s="19"/>
+      <c r="E588" s="16"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E589" s="19"/>
+      <c r="E589" s="16"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E590" s="19"/>
+      <c r="E590" s="16"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E591" s="19"/>
+      <c r="E591" s="16"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E592" s="19"/>
+      <c r="E592" s="16"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E593" s="19"/>
+      <c r="E593" s="16"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E594" s="19"/>
+      <c r="E594" s="16"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E595" s="19"/>
+      <c r="E595" s="16"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E596" s="19"/>
+      <c r="E596" s="16"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E597" s="19"/>
+      <c r="E597" s="16"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E598" s="19"/>
+      <c r="E598" s="16"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E599" s="19"/>
+      <c r="E599" s="16"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E600" s="19"/>
+      <c r="E600" s="16"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E601" s="19"/>
+      <c r="E601" s="16"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E602" s="19"/>
+      <c r="E602" s="16"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E603" s="19"/>
+      <c r="E603" s="16"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E604" s="19"/>
+      <c r="E604" s="16"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E605" s="19"/>
+      <c r="E605" s="16"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E606" s="19"/>
+      <c r="E606" s="16"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E607" s="19"/>
+      <c r="E607" s="16"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E608" s="19"/>
+      <c r="E608" s="16"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E609" s="19"/>
+      <c r="E609" s="16"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E610" s="19"/>
+      <c r="E610" s="16"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E611" s="19"/>
+      <c r="E611" s="16"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E612" s="19"/>
+      <c r="E612" s="16"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E613" s="19"/>
+      <c r="E613" s="16"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E614" s="19"/>
+      <c r="E614" s="16"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E615" s="19"/>
+      <c r="E615" s="16"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E616" s="19"/>
+      <c r="E616" s="16"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E617" s="19"/>
+      <c r="E617" s="16"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E618" s="19"/>
+      <c r="E618" s="16"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E619" s="19"/>
+      <c r="E619" s="16"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E620" s="19"/>
+      <c r="E620" s="16"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E621" s="19"/>
+      <c r="E621" s="16"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E622" s="19"/>
+      <c r="E622" s="16"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E623" s="19"/>
+      <c r="E623" s="16"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E624" s="19"/>
+      <c r="E624" s="16"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E625" s="19"/>
+      <c r="E625" s="16"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E626" s="19"/>
+      <c r="E626" s="16"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E627" s="19"/>
+      <c r="E627" s="16"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E628" s="19"/>
+      <c r="E628" s="16"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E629" s="19"/>
+      <c r="E629" s="16"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E630" s="19"/>
+      <c r="E630" s="16"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E631" s="19"/>
+      <c r="E631" s="16"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E632" s="19"/>
+      <c r="E632" s="16"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E633" s="19"/>
+      <c r="E633" s="16"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E634" s="19"/>
+      <c r="E634" s="16"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E635" s="19"/>
+      <c r="E635" s="16"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E636" s="19"/>
+      <c r="E636" s="16"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E637" s="19"/>
+      <c r="E637" s="16"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E638" s="19"/>
+      <c r="E638" s="16"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E639" s="19"/>
+      <c r="E639" s="16"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E640" s="19"/>
+      <c r="E640" s="16"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E641" s="19"/>
+      <c r="E641" s="16"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E642" s="19"/>
+      <c r="E642" s="16"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E643" s="19"/>
+      <c r="E643" s="16"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E644" s="19"/>
+      <c r="E644" s="16"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E645" s="19"/>
+      <c r="E645" s="16"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E646" s="19"/>
+      <c r="E646" s="16"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E647" s="19"/>
+      <c r="E647" s="16"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E648" s="19"/>
+      <c r="E648" s="16"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E649" s="19"/>
+      <c r="E649" s="16"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E650" s="19"/>
+      <c r="E650" s="16"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E651" s="19"/>
+      <c r="E651" s="16"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E652" s="19"/>
+      <c r="E652" s="16"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E653" s="19"/>
+      <c r="E653" s="16"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E654" s="19"/>
+      <c r="E654" s="16"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E655" s="19"/>
+      <c r="E655" s="16"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E656" s="19"/>
+      <c r="E656" s="16"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E657" s="19"/>
+      <c r="E657" s="16"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E658" s="19"/>
+      <c r="E658" s="16"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E659" s="19"/>
+      <c r="E659" s="16"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E660" s="19"/>
+      <c r="E660" s="16"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E661" s="19"/>
+      <c r="E661" s="16"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E662" s="19"/>
+      <c r="E662" s="16"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E663" s="19"/>
+      <c r="E663" s="16"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E664" s="19"/>
+      <c r="E664" s="16"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E665" s="19"/>
+      <c r="E665" s="16"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E666" s="19"/>
+      <c r="E666" s="16"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E667" s="19"/>
+      <c r="E667" s="16"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E668" s="19"/>
+      <c r="E668" s="16"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E669" s="19"/>
+      <c r="E669" s="16"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E670" s="19"/>
+      <c r="E670" s="16"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E671" s="19"/>
+      <c r="E671" s="16"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E672" s="19"/>
+      <c r="E672" s="16"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E673" s="19"/>
+      <c r="E673" s="16"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E674" s="19"/>
+      <c r="E674" s="16"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E675" s="19"/>
+      <c r="E675" s="16"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E676" s="19"/>
+      <c r="E676" s="16"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E677" s="19"/>
+      <c r="E677" s="16"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E678" s="19"/>
+      <c r="E678" s="16"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E679" s="19"/>
+      <c r="E679" s="16"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E680" s="19"/>
+      <c r="E680" s="16"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E681" s="19"/>
+      <c r="E681" s="16"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E682" s="19"/>
+      <c r="E682" s="16"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E683" s="19"/>
+      <c r="E683" s="16"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E684" s="19"/>
+      <c r="E684" s="16"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E685" s="19"/>
+      <c r="E685" s="16"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E686" s="19"/>
+      <c r="E686" s="16"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E687" s="19"/>
+      <c r="E687" s="16"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E688" s="19"/>
+      <c r="E688" s="16"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E689" s="19"/>
+      <c r="E689" s="16"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E690" s="19"/>
+      <c r="E690" s="16"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E691" s="19"/>
+      <c r="E691" s="16"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E692" s="19"/>
+      <c r="E692" s="16"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E693" s="19"/>
+      <c r="E693" s="16"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E694" s="19"/>
+      <c r="E694" s="16"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E695" s="19"/>
+      <c r="E695" s="16"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E696" s="19"/>
+      <c r="E696" s="16"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E697" s="19"/>
+      <c r="E697" s="16"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E698" s="19"/>
+      <c r="E698" s="16"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E699" s="19"/>
+      <c r="E699" s="16"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E700" s="19"/>
+      <c r="E700" s="16"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E701" s="19"/>
+      <c r="E701" s="16"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E702" s="19"/>
+      <c r="E702" s="16"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E703" s="19"/>
+      <c r="E703" s="16"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E704" s="19"/>
+      <c r="E704" s="16"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E705" s="19"/>
+      <c r="E705" s="16"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E706" s="19"/>
+      <c r="E706" s="16"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E707" s="19"/>
+      <c r="E707" s="16"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E708" s="19"/>
+      <c r="E708" s="16"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E709" s="19"/>
+      <c r="E709" s="16"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E710" s="19"/>
+      <c r="E710" s="16"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E711" s="19"/>
+      <c r="E711" s="16"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E712" s="19"/>
+      <c r="E712" s="16"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E713" s="19"/>
+      <c r="E713" s="16"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E714" s="19"/>
+      <c r="E714" s="16"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E715" s="19"/>
+      <c r="E715" s="16"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E716" s="19"/>
+      <c r="E716" s="16"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E717" s="19"/>
+      <c r="E717" s="16"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E718" s="19"/>
+      <c r="E718" s="16"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E719" s="19"/>
+      <c r="E719" s="16"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E720" s="19"/>
+      <c r="E720" s="16"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E721" s="19"/>
+      <c r="E721" s="16"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E722" s="19"/>
+      <c r="E722" s="16"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E723" s="19"/>
+      <c r="E723" s="16"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E724" s="19"/>
+      <c r="E724" s="16"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E725" s="19"/>
+      <c r="E725" s="16"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E726" s="19"/>
+      <c r="E726" s="16"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E727" s="19"/>
+      <c r="E727" s="16"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E728" s="19"/>
+      <c r="E728" s="16"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E729" s="19"/>
+      <c r="E729" s="16"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E730" s="19"/>
+      <c r="E730" s="16"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E731" s="19"/>
+      <c r="E731" s="16"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E732" s="19"/>
+      <c r="E732" s="16"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E733" s="19"/>
+      <c r="E733" s="16"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E734" s="19"/>
+      <c r="E734" s="16"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E735" s="19"/>
+      <c r="E735" s="16"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E736" s="19"/>
+      <c r="E736" s="16"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E737" s="19"/>
+      <c r="E737" s="16"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E738" s="19"/>
+      <c r="E738" s="16"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E739" s="19"/>
+      <c r="E739" s="16"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E740" s="19"/>
+      <c r="E740" s="16"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E741" s="19"/>
+      <c r="E741" s="16"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E742" s="19"/>
+      <c r="E742" s="16"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E743" s="19"/>
+      <c r="E743" s="16"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E744" s="19"/>
+      <c r="E744" s="16"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E745" s="19"/>
+      <c r="E745" s="16"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E746" s="19"/>
+      <c r="E746" s="16"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E747" s="19"/>
+      <c r="E747" s="16"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E748" s="19"/>
+      <c r="E748" s="16"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E749" s="19"/>
+      <c r="E749" s="16"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E750" s="19"/>
+      <c r="E750" s="16"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E751" s="19"/>
+      <c r="E751" s="16"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E752" s="19"/>
+      <c r="E752" s="16"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E753" s="19"/>
+      <c r="E753" s="16"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E754" s="19"/>
+      <c r="E754" s="16"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E755" s="19"/>
+      <c r="E755" s="16"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E756" s="19"/>
+      <c r="E756" s="16"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E757" s="19"/>
+      <c r="E757" s="16"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E758" s="19"/>
+      <c r="E758" s="16"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E759" s="19"/>
+      <c r="E759" s="16"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E760" s="19"/>
+      <c r="E760" s="16"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E761" s="19"/>
+      <c r="E761" s="16"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E762" s="19"/>
+      <c r="E762" s="16"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E763" s="19"/>
+      <c r="E763" s="16"/>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E764" s="19"/>
+      <c r="E764" s="16"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E765" s="19"/>
+      <c r="E765" s="16"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E766" s="19"/>
+      <c r="E766" s="16"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E767" s="19"/>
+      <c r="E767" s="16"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E768" s="19"/>
+      <c r="E768" s="16"/>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E769" s="19"/>
+      <c r="E769" s="16"/>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E770" s="19"/>
+      <c r="E770" s="16"/>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E771" s="19"/>
+      <c r="E771" s="16"/>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E772" s="19"/>
+      <c r="E772" s="16"/>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E773" s="19"/>
+      <c r="E773" s="16"/>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E774" s="19"/>
+      <c r="E774" s="16"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E775" s="19"/>
+      <c r="E775" s="16"/>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E776" s="19"/>
+      <c r="E776" s="16"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E777" s="19"/>
+      <c r="E777" s="16"/>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E778" s="19"/>
+      <c r="E778" s="16"/>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E779" s="19"/>
+      <c r="E779" s="16"/>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E780" s="19"/>
+      <c r="E780" s="16"/>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E781" s="19"/>
+      <c r="E781" s="16"/>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E782" s="19"/>
+      <c r="E782" s="16"/>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E783" s="19"/>
+      <c r="E783" s="16"/>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E784" s="19"/>
+      <c r="E784" s="16"/>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E785" s="19"/>
+      <c r="E785" s="16"/>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E786" s="19"/>
+      <c r="E786" s="16"/>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E787" s="19"/>
+      <c r="E787" s="16"/>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E788" s="19"/>
+      <c r="E788" s="16"/>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E789" s="19"/>
+      <c r="E789" s="16"/>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E790" s="19"/>
+      <c r="E790" s="16"/>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E791" s="19"/>
+      <c r="E791" s="16"/>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E792" s="19"/>
+      <c r="E792" s="16"/>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E793" s="19"/>
+      <c r="E793" s="16"/>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E794" s="19"/>
+      <c r="E794" s="16"/>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E795" s="19"/>
+      <c r="E795" s="16"/>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E796" s="19"/>
+      <c r="E796" s="16"/>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E797" s="19"/>
+      <c r="E797" s="16"/>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E798" s="19"/>
+      <c r="E798" s="16"/>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E799" s="19"/>
+      <c r="E799" s="16"/>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E800" s="19"/>
+      <c r="E800" s="16"/>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E801" s="19"/>
+      <c r="E801" s="16"/>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E802" s="19"/>
+      <c r="E802" s="16"/>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E803" s="19"/>
+      <c r="E803" s="16"/>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E804" s="19"/>
+      <c r="E804" s="16"/>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E805" s="19"/>
+      <c r="E805" s="16"/>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E806" s="19"/>
+      <c r="E806" s="16"/>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E807" s="19"/>
+      <c r="E807" s="16"/>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E808" s="19"/>
+      <c r="E808" s="16"/>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E809" s="19"/>
+      <c r="E809" s="16"/>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E810" s="19"/>
+      <c r="E810" s="16"/>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E811" s="19"/>
+      <c r="E811" s="16"/>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E812" s="19"/>
+      <c r="E812" s="16"/>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E813" s="19"/>
+      <c r="E813" s="16"/>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E814" s="19"/>
+      <c r="E814" s="16"/>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E815" s="19"/>
+      <c r="E815" s="16"/>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E816" s="19"/>
+      <c r="E816" s="16"/>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E817" s="19"/>
+      <c r="E817" s="16"/>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E818" s="19"/>
+      <c r="E818" s="16"/>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E819" s="19"/>
+      <c r="E819" s="16"/>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E820" s="19"/>
+      <c r="E820" s="16"/>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E821" s="19"/>
+      <c r="E821" s="16"/>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E822" s="19"/>
+      <c r="E822" s="16"/>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E823" s="19"/>
+      <c r="E823" s="16"/>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E824" s="19"/>
+      <c r="E824" s="16"/>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E825" s="19"/>
+      <c r="E825" s="16"/>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E826" s="19"/>
+      <c r="E826" s="16"/>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E827" s="19"/>
+      <c r="E827" s="16"/>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E828" s="19"/>
+      <c r="E828" s="16"/>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E829" s="19"/>
+      <c r="E829" s="16"/>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E830" s="19"/>
+      <c r="E830" s="16"/>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E831" s="19"/>
+      <c r="E831" s="16"/>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E832" s="19"/>
+      <c r="E832" s="16"/>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E833" s="19"/>
+      <c r="E833" s="16"/>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E834" s="19"/>
+      <c r="E834" s="16"/>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E835" s="19"/>
+      <c r="E835" s="16"/>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E836" s="19"/>
+      <c r="E836" s="16"/>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E837" s="19"/>
+      <c r="E837" s="16"/>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E838" s="19"/>
+      <c r="E838" s="16"/>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E839" s="19"/>
+      <c r="E839" s="16"/>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E840" s="19"/>
+      <c r="E840" s="16"/>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E841" s="19"/>
+      <c r="E841" s="16"/>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E842" s="19"/>
+      <c r="E842" s="16"/>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E843" s="19"/>
+      <c r="E843" s="16"/>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E844" s="19"/>
+      <c r="E844" s="16"/>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E845" s="19"/>
+      <c r="E845" s="16"/>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E846" s="19"/>
+      <c r="E846" s="16"/>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E847" s="19"/>
+      <c r="E847" s="16"/>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E848" s="19"/>
+      <c r="E848" s="16"/>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E849" s="19"/>
+      <c r="E849" s="16"/>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E850" s="19"/>
+      <c r="E850" s="16"/>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E851" s="19"/>
+      <c r="E851" s="16"/>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E852" s="19"/>
+      <c r="E852" s="16"/>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E853" s="19"/>
+      <c r="E853" s="16"/>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E854" s="19"/>
+      <c r="E854" s="16"/>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E855" s="19"/>
+      <c r="E855" s="16"/>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E856" s="19"/>
+      <c r="E856" s="16"/>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E857" s="19"/>
+      <c r="E857" s="16"/>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E858" s="19"/>
+      <c r="E858" s="16"/>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E859" s="19"/>
+      <c r="E859" s="16"/>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E860" s="19"/>
+      <c r="E860" s="16"/>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E861" s="19"/>
+      <c r="E861" s="16"/>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E862" s="19"/>
+      <c r="E862" s="16"/>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E863" s="19"/>
+      <c r="E863" s="16"/>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E864" s="19"/>
+      <c r="E864" s="16"/>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E865" s="19"/>
+      <c r="E865" s="16"/>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E866" s="19"/>
+      <c r="E866" s="16"/>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E867" s="19"/>
+      <c r="E867" s="16"/>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E868" s="19"/>
+      <c r="E868" s="16"/>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E869" s="19"/>
+      <c r="E869" s="16"/>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E870" s="19"/>
+      <c r="E870" s="16"/>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E871" s="19"/>
+      <c r="E871" s="16"/>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E872" s="19"/>
+      <c r="E872" s="16"/>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E873" s="19"/>
+      <c r="E873" s="16"/>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E874" s="19"/>
+      <c r="E874" s="16"/>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E875" s="19"/>
+      <c r="E875" s="16"/>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E876" s="19"/>
+      <c r="E876" s="16"/>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E877" s="19"/>
+      <c r="E877" s="16"/>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E878" s="19"/>
+      <c r="E878" s="16"/>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E879" s="19"/>
+      <c r="E879" s="16"/>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E880" s="19"/>
+      <c r="E880" s="16"/>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E881" s="19"/>
+      <c r="E881" s="16"/>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E882" s="19"/>
+      <c r="E882" s="16"/>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E883" s="19"/>
+      <c r="E883" s="16"/>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E884" s="19"/>
+      <c r="E884" s="16"/>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E885" s="19"/>
+      <c r="E885" s="16"/>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E886" s="19"/>
+      <c r="E886" s="16"/>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E887" s="19"/>
+      <c r="E887" s="16"/>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E888" s="19"/>
+      <c r="E888" s="16"/>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E889" s="19"/>
+      <c r="E889" s="16"/>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E890" s="19"/>
+      <c r="E890" s="16"/>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E891" s="19"/>
+      <c r="E891" s="16"/>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E892" s="19"/>
+      <c r="E892" s="16"/>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E893" s="19"/>
+      <c r="E893" s="16"/>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E894" s="19"/>
+      <c r="E894" s="16"/>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E895" s="19"/>
+      <c r="E895" s="16"/>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E896" s="19"/>
+      <c r="E896" s="16"/>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E897" s="19"/>
+      <c r="E897" s="16"/>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E898" s="19"/>
+      <c r="E898" s="16"/>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E899" s="19"/>
+      <c r="E899" s="16"/>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E900" s="19"/>
+      <c r="E900" s="16"/>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E901" s="19"/>
+      <c r="E901" s="16"/>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E902" s="19"/>
+      <c r="E902" s="16"/>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E903" s="19"/>
+      <c r="E903" s="16"/>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E904" s="19"/>
+      <c r="E904" s="16"/>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E905" s="19"/>
+      <c r="E905" s="16"/>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E906" s="19"/>
+      <c r="E906" s="16"/>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E907" s="19"/>
+      <c r="E907" s="16"/>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E908" s="19"/>
+      <c r="E908" s="16"/>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E909" s="19"/>
+      <c r="E909" s="16"/>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E910" s="19"/>
+      <c r="E910" s="16"/>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E911" s="19"/>
+      <c r="E911" s="16"/>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E912" s="19"/>
+      <c r="E912" s="16"/>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E913" s="19"/>
+      <c r="E913" s="16"/>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E914" s="19"/>
+      <c r="E914" s="16"/>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E915" s="19"/>
+      <c r="E915" s="16"/>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E916" s="19"/>
+      <c r="E916" s="16"/>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E917" s="19"/>
+      <c r="E917" s="16"/>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E918" s="19"/>
+      <c r="E918" s="16"/>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E919" s="19"/>
+      <c r="E919" s="16"/>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E920" s="19"/>
+      <c r="E920" s="16"/>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E921" s="19"/>
+      <c r="E921" s="16"/>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E922" s="19"/>
+      <c r="E922" s="16"/>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E923" s="19"/>
+      <c r="E923" s="16"/>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E924" s="19"/>
+      <c r="E924" s="16"/>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E925" s="19"/>
+      <c r="E925" s="16"/>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E926" s="19"/>
+      <c r="E926" s="16"/>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E927" s="19"/>
+      <c r="E927" s="16"/>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E928" s="19"/>
+      <c r="E928" s="16"/>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E929" s="19"/>
+      <c r="E929" s="16"/>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E930" s="19"/>
+      <c r="E930" s="16"/>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E931" s="19"/>
+      <c r="E931" s="16"/>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E932" s="19"/>
+      <c r="E932" s="16"/>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E933" s="19"/>
+      <c r="E933" s="16"/>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E934" s="19"/>
+      <c r="E934" s="16"/>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E935" s="19"/>
+      <c r="E935" s="16"/>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E936" s="19"/>
+      <c r="E936" s="16"/>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E937" s="19"/>
+      <c r="E937" s="16"/>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E938" s="19"/>
+      <c r="E938" s="16"/>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E939" s="19"/>
+      <c r="E939" s="16"/>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E940" s="19"/>
+      <c r="E940" s="16"/>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E941" s="19"/>
+      <c r="E941" s="16"/>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E942" s="19"/>
+      <c r="E942" s="16"/>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E943" s="19"/>
+      <c r="E943" s="16"/>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E944" s="19"/>
+      <c r="E944" s="16"/>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E945" s="19"/>
+      <c r="E945" s="16"/>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E946" s="19"/>
+      <c r="E946" s="16"/>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E947" s="19"/>
+      <c r="E947" s="16"/>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E948" s="19"/>
+      <c r="E948" s="16"/>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E949" s="19"/>
+      <c r="E949" s="16"/>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E950" s="19"/>
+      <c r="E950" s="16"/>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E951" s="19"/>
+      <c r="E951" s="16"/>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E952" s="19"/>
+      <c r="E952" s="16"/>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E953" s="19"/>
+      <c r="E953" s="16"/>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E954" s="19"/>
+      <c r="E954" s="16"/>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E955" s="19"/>
+      <c r="E955" s="16"/>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E956" s="19"/>
+      <c r="E956" s="16"/>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E957" s="19"/>
+      <c r="E957" s="16"/>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E958" s="19"/>
+      <c r="E958" s="16"/>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E959" s="19"/>
+      <c r="E959" s="16"/>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E960" s="19"/>
+      <c r="E960" s="16"/>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E961" s="19"/>
+      <c r="E961" s="16"/>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E962" s="19"/>
+      <c r="E962" s="16"/>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E963" s="19"/>
+      <c r="E963" s="16"/>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E964" s="19"/>
+      <c r="E964" s="16"/>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E965" s="19"/>
+      <c r="E965" s="16"/>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E966" s="19"/>
+      <c r="E966" s="16"/>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E967" s="19"/>
+      <c r="E967" s="16"/>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E968" s="19"/>
+      <c r="E968" s="16"/>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E969" s="19"/>
+      <c r="E969" s="16"/>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E970" s="19"/>
+      <c r="E970" s="16"/>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E971" s="19"/>
+      <c r="E971" s="16"/>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E972" s="19"/>
+      <c r="E972" s="16"/>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E973" s="19"/>
+      <c r="E973" s="16"/>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E974" s="19"/>
+      <c r="E974" s="16"/>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E975" s="19"/>
+      <c r="E975" s="16"/>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E976" s="19"/>
+      <c r="E976" s="16"/>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E977" s="19"/>
+      <c r="E977" s="16"/>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E978" s="19"/>
+      <c r="E978" s="16"/>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E979" s="19"/>
+      <c r="E979" s="16"/>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E980" s="19"/>
+      <c r="E980" s="16"/>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E981" s="19"/>
+      <c r="E981" s="16"/>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E982" s="19"/>
+      <c r="E982" s="16"/>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E983" s="19"/>
+      <c r="E983" s="16"/>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E984" s="19"/>
+      <c r="E984" s="16"/>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E985" s="19"/>
+      <c r="E985" s="16"/>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E986" s="19"/>
+      <c r="E986" s="16"/>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E987" s="19"/>
+      <c r="E987" s="16"/>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E988" s="19"/>
+      <c r="E988" s="16"/>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E989" s="19"/>
+      <c r="E989" s="16"/>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E990" s="19"/>
+      <c r="E990" s="16"/>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E991" s="19"/>
+      <c r="E991" s="16"/>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E992" s="19"/>
+      <c r="E992" s="16"/>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E993" s="19"/>
+      <c r="E993" s="16"/>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E994" s="19"/>
+      <c r="E994" s="16"/>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E995" s="19"/>
+      <c r="E995" s="16"/>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E996" s="19"/>
+      <c r="E996" s="16"/>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E997" s="19"/>
+      <c r="E997" s="16"/>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E998" s="19"/>
+      <c r="E998" s="16"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5162,21 +5186,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
+      <c r="A1" s="24"/>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5190,659 +5215,771 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="25"/>
+        <v>157</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="H2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="24" t="n">
+      <c r="B3" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="n">
+      <c r="D3" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F3" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="25"/>
+        <v>54</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="25"/>
+        <v>105</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="H5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="24" t="n">
+        <v>99</v>
+      </c>
+      <c r="B6" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="F6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="24" t="n">
+      <c r="B7" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="n">
+      <c r="C7" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="24" t="n">
+      <c r="D7" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F7" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="n">
+      <c r="B8" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="C8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="24" t="n">
+        <v>147</v>
+      </c>
+      <c r="B9" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="C9" s="24" t="n">
+      <c r="C9" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="n">
+      <c r="D9" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="F9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="24" t="n">
+        <v>173</v>
+      </c>
+      <c r="B10" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D10" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F10" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="24" t="n">
+      <c r="B12" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="n">
+      <c r="C12" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="24" t="n">
+      <c r="D12" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F12" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="24" t="n">
+        <v>59</v>
+      </c>
+      <c r="B14" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="24" t="n">
+      <c r="C14" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="24" t="n">
+      <c r="D14" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F14" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="24" t="n">
+      <c r="B15" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="24" t="n">
+      <c r="C15" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="24" t="n">
+      <c r="D15" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F15" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="24" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="24" t="n">
+      <c r="C16" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="24" t="n">
+      <c r="D16" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="24" t="n">
+        <v>131</v>
+      </c>
+      <c r="B17" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="24" t="n">
+      <c r="C17" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="24" t="n">
+      <c r="D17" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>158</v>
+      <c r="F17" s="26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="24" t="n">
+        <v>110</v>
+      </c>
+      <c r="B18" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="24" t="n">
+      <c r="C18" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="24" t="n">
+      <c r="D18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>158</v>
+      <c r="F18" s="26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="24" t="n">
+        <v>116</v>
+      </c>
+      <c r="B19" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="24" t="n">
+      <c r="C19" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="24" t="n">
+      <c r="D19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>158</v>
+      <c r="F19" s="26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="25"/>
+        <v>94</v>
+      </c>
+      <c r="B20" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="B21" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="28"/>
+        <v>174</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="25"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="25"/>
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="25"/>
+        <v>83</v>
+      </c>
+      <c r="B26" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C27" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>158</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="24" t="n">
+        <v>86</v>
+      </c>
+      <c r="B28" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="24" t="n">
+      <c r="C28" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="24" t="n">
+      <c r="D28" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="24" t="n">
+      <c r="E28" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>158</v>
-      </c>
+      <c r="F28" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="33"/>
+        <v>176</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="A33" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="A34" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-    </row>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B23:E23"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B2:E4 B6:E29">
+  <conditionalFormatting sqref="B2:E4 B6:E28">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="-" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("-",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E4 B6:E29">
+  <conditionalFormatting sqref="B2:E4 B6:E28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/tool_evaluation.xlsx
+++ b/tool_evaluation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_info" sheetId="1" state="visible" r:id="rId2"/>
@@ -652,7 +652,7 @@
     <t xml:space="preserve">Does the prediction cover the correct interacting residues?</t>
   </si>
   <si>
-    <t xml:space="preserve">Is the prediction confidently (&gt;= 70%, if applicable) correct?</t>
+    <t xml:space="preserve">Does the tool report a trustable confidence score (&gt;= 70%, if applicable)?</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
     <numFmt numFmtId="165" formatCode="d/m"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -729,12 +729,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -844,7 +838,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -913,23 +907,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -941,7 +931,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1073,13 +1063,13 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -1619,7 +1609,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1694,7 +1684,7 @@
         <v>88</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="17" t="s">
         <v>89</v>
       </c>
       <c r="J21" s="7" t="s">
@@ -1909,7 +1899,7 @@
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="18" t="s">
         <v>115</v>
       </c>
       <c r="M27" s="13"/>
@@ -1940,16 +1930,16 @@
       <c r="I28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="19" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1981,7 +1971,7 @@
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="18" t="s">
         <v>115</v>
       </c>
       <c r="M29" s="7" t="s">
@@ -2098,22 +2088,22 @@
         <v>71</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="21" t="s">
+      <c r="H32" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="L32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M32" s="20" t="s">
+      <c r="L32" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="19" t="s">
         <v>143</v>
       </c>
       <c r="N32" s="16"/>
@@ -2217,7 +2207,7 @@
       <c r="G35" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="21" t="s">
         <v>155</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -2252,7 +2242,7 @@
       <c r="G36" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="21" t="s">
         <v>160</v>
       </c>
       <c r="I36" s="7"/>
@@ -2262,19 +2252,19 @@
       <c r="M36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="16"/>
@@ -5188,11 +5178,11 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.5"/>
@@ -5201,7 +5191,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24"/>
+      <c r="A1" s="23"/>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -5217,32 +5207,32 @@
       <c r="F1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="25"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="26"/>
       <c r="H2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5250,380 +5240,380 @@
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="26" t="n">
+      <c r="B3" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="C3" s="26" t="n">
+      <c r="C3" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="n">
+      <c r="D3" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="26" t="n">
+      <c r="E3" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="26"/>
       <c r="H5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="n">
+      <c r="C6" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="26" t="n">
+      <c r="D6" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="26" t="n">
+      <c r="E6" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="28" t="s">
+      <c r="F6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="26" t="n">
+      <c r="B7" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="26" t="n">
+      <c r="C7" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="n">
+      <c r="D7" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="26" t="n">
+      <c r="E7" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="26" t="n">
+      <c r="B8" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="C8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="26" t="n">
+      <c r="B9" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="C9" s="26" t="n">
+      <c r="C9" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="26" t="n">
+      <c r="D9" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="26" t="n">
+      <c r="E9" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
+      <c r="F9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="26" t="n">
+      <c r="B10" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="26" t="n">
+      <c r="C10" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="26" t="n">
+      <c r="D10" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="26" t="n">
+      <c r="E10" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="B11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="26" t="n">
+      <c r="B12" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="n">
+      <c r="C12" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="26" t="n">
+      <c r="D12" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="B13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="26" t="n">
+      <c r="B14" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="26" t="n">
+      <c r="C14" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="26" t="n">
+      <c r="D14" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="26" t="n">
+      <c r="B15" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="26" t="n">
+      <c r="C15" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="26" t="n">
+      <c r="D15" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="26" t="n">
+      <c r="E15" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="26" t="n">
+      <c r="B16" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="26" t="n">
+      <c r="C16" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="26" t="n">
+      <c r="D16" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="26" t="n">
+      <c r="E16" s="25" t="n">
         <v>1.5</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5631,19 +5621,19 @@
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="26" t="n">
+      <c r="B17" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="26" t="n">
+      <c r="C17" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="26" t="n">
+      <c r="D17" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="26" t="n">
+      <c r="E17" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5651,19 +5641,19 @@
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="26" t="n">
+      <c r="B18" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="26" t="n">
+      <c r="C18" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="26" t="n">
+      <c r="D18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5671,19 +5661,19 @@
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="26" t="n">
+      <c r="B19" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="26" t="n">
+      <c r="C19" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="26" t="n">
+      <c r="D19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5691,19 +5681,19 @@
       <c r="A20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="26" t="n">
+      <c r="B20" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="C20" s="26" t="n">
+      <c r="C20" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="26" t="n">
+      <c r="D20" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="26" t="n">
+      <c r="E20" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5711,19 +5701,19 @@
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="26" t="n">
+      <c r="B21" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="C21" s="26" t="n">
+      <c r="C21" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="26" t="n">
+      <c r="D21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5731,73 +5721,73 @@
       <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="30"/>
+      <c r="B22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="27"/>
+      <c r="B23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="27"/>
+      <c r="B24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="26" t="n">
+      <c r="B25" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="26" t="n">
+      <c r="C25" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="26" t="n">
+      <c r="D25" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="26" t="n">
+      <c r="E25" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5805,19 +5795,19 @@
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="26" t="n">
+      <c r="B26" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="C26" s="26" t="n">
+      <c r="C26" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="26" t="n">
+      <c r="D26" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="26" t="n">
+      <c r="E26" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5825,151 +5815,151 @@
       <c r="A27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="27"/>
+      <c r="B27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="26" t="n">
+      <c r="B28" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="26" t="n">
+      <c r="C28" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="26" t="n">
+      <c r="D28" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="26" t="n">
+      <c r="E28" s="25" t="n">
         <v>0.5</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="31"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
